--- a/server/service/Excel.xlsx
+++ b/server/service/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Фамилия, номер группы</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Dm1</t>
   </si>
   <si>
     <t>Правильные ответы</t>
@@ -83,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -117,7 +120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
@@ -127,16 +130,30 @@
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
